--- a/output/tables/simulation/simulation_results_7m.xlsx
+++ b/output/tables/simulation/simulation_results_7m.xlsx
@@ -450,13 +450,13 @@
         <v>0.05</v>
       </c>
       <c r="G2">
-        <v>5.46</v>
+        <v>8.51</v>
       </c>
       <c r="H2">
-        <v>3.71</v>
+        <v>6.24</v>
       </c>
       <c r="I2">
-        <v>67.98</v>
+        <v>73.34</v>
       </c>
       <c r="J2">
         <v>104.73</v>
@@ -494,13 +494,13 @@
         <v>0.7</v>
       </c>
       <c r="G3">
-        <v>5.46</v>
+        <v>8.51</v>
       </c>
       <c r="H3">
-        <v>3.71</v>
+        <v>6.24</v>
       </c>
       <c r="I3">
-        <v>67.98</v>
+        <v>73.34</v>
       </c>
       <c r="J3">
         <v>104.73</v>
@@ -538,13 +538,13 @@
         <v>0.05</v>
       </c>
       <c r="G4">
-        <v>5.48</v>
+        <v>8.52</v>
       </c>
       <c r="H4">
-        <v>3.71</v>
+        <v>6.24</v>
       </c>
       <c r="I4">
-        <v>67.83</v>
+        <v>73.23999999999999</v>
       </c>
       <c r="J4">
         <v>104.63</v>
@@ -582,13 +582,13 @@
         <v>0.05</v>
       </c>
       <c r="G5">
-        <v>20.4</v>
+        <v>23.63</v>
       </c>
       <c r="H5">
-        <v>9.83</v>
+        <v>16.52</v>
       </c>
       <c r="I5">
-        <v>48.18</v>
+        <v>69.91</v>
       </c>
       <c r="J5">
         <v>99.13</v>
@@ -623,13 +623,13 @@
         <v>7</v>
       </c>
       <c r="G6">
-        <v>5.48</v>
+        <v>8.52</v>
       </c>
       <c r="H6">
-        <v>3.71</v>
+        <v>6.24</v>
       </c>
       <c r="I6">
-        <v>67.83</v>
+        <v>73.23999999999999</v>
       </c>
       <c r="J6">
         <v>104.63</v>
@@ -664,13 +664,13 @@
         <v>0.7</v>
       </c>
       <c r="G7">
-        <v>20.4</v>
+        <v>23.63</v>
       </c>
       <c r="H7">
-        <v>9.83</v>
+        <v>16.52</v>
       </c>
       <c r="I7">
-        <v>48.18</v>
+        <v>69.91</v>
       </c>
       <c r="J7">
         <v>99.14</v>
@@ -705,13 +705,13 @@
         <v>0.05</v>
       </c>
       <c r="G8">
-        <v>24.91</v>
+        <v>23.79</v>
       </c>
       <c r="H8">
-        <v>9.85</v>
+        <v>16.55</v>
       </c>
       <c r="I8">
-        <v>39.54</v>
+        <v>69.59</v>
       </c>
       <c r="J8">
         <v>99.06999999999999</v>
@@ -743,13 +743,13 @@
         </is>
       </c>
       <c r="G9">
-        <v>24.91</v>
+        <v>23.79</v>
       </c>
       <c r="H9">
-        <v>9.85</v>
+        <v>16.56</v>
       </c>
       <c r="I9">
-        <v>39.54</v>
+        <v>69.59</v>
       </c>
       <c r="J9">
         <v>99.13</v>
@@ -790,13 +790,13 @@
         <v>0.05</v>
       </c>
       <c r="G10">
-        <v>5.46</v>
+        <v>8.51</v>
       </c>
       <c r="H10">
-        <v>3.26</v>
+        <v>5.48</v>
       </c>
       <c r="I10">
-        <v>59.68</v>
+        <v>64.38</v>
       </c>
       <c r="J10">
         <v>102.98</v>
@@ -834,13 +834,13 @@
         <v>0.7</v>
       </c>
       <c r="G11">
-        <v>5.46</v>
+        <v>8.51</v>
       </c>
       <c r="H11">
-        <v>3.26</v>
+        <v>5.48</v>
       </c>
       <c r="I11">
-        <v>59.68</v>
+        <v>64.38</v>
       </c>
       <c r="J11">
         <v>102.98</v>
@@ -878,13 +878,13 @@
         <v>0.05</v>
       </c>
       <c r="G12">
+        <v>8.52</v>
+      </c>
+      <c r="H12">
         <v>5.48</v>
       </c>
-      <c r="H12">
-        <v>3.26</v>
-      </c>
       <c r="I12">
-        <v>59.51</v>
+        <v>64.25</v>
       </c>
       <c r="J12">
         <v>102.98</v>
@@ -922,13 +922,13 @@
         <v>0.05</v>
       </c>
       <c r="G13">
-        <v>20.4</v>
+        <v>23.63</v>
       </c>
       <c r="H13">
-        <v>6.99</v>
+        <v>11.74</v>
       </c>
       <c r="I13">
-        <v>34.26</v>
+        <v>49.71</v>
       </c>
       <c r="J13">
         <v>99.45</v>
@@ -963,13 +963,13 @@
         <v>7</v>
       </c>
       <c r="G14">
+        <v>8.52</v>
+      </c>
+      <c r="H14">
         <v>5.48</v>
       </c>
-      <c r="H14">
-        <v>3.26</v>
-      </c>
       <c r="I14">
-        <v>59.51</v>
+        <v>64.25</v>
       </c>
       <c r="J14">
         <v>102.98</v>
@@ -1004,13 +1004,13 @@
         <v>0.7</v>
       </c>
       <c r="G15">
-        <v>20.4</v>
+        <v>23.63</v>
       </c>
       <c r="H15">
-        <v>6.99</v>
+        <v>11.74</v>
       </c>
       <c r="I15">
-        <v>34.26</v>
+        <v>49.7</v>
       </c>
       <c r="J15">
         <v>99.45</v>
@@ -1045,13 +1045,13 @@
         <v>0.05</v>
       </c>
       <c r="G16">
-        <v>24.91</v>
+        <v>23.79</v>
       </c>
       <c r="H16">
-        <v>6.99</v>
+        <v>11.74</v>
       </c>
       <c r="I16">
-        <v>28.05</v>
+        <v>49.36</v>
       </c>
       <c r="J16">
         <v>99.45</v>
@@ -1083,13 +1083,13 @@
         </is>
       </c>
       <c r="G17">
-        <v>24.91</v>
+        <v>23.79</v>
       </c>
       <c r="H17">
-        <v>6.99</v>
+        <v>11.74</v>
       </c>
       <c r="I17">
-        <v>28.05</v>
+        <v>49.36</v>
       </c>
       <c r="J17">
         <v>99.45</v>
@@ -1130,13 +1130,13 @@
         <v>0.05</v>
       </c>
       <c r="G18">
-        <v>5.46</v>
+        <v>8.51</v>
       </c>
       <c r="H18">
-        <v>1.31</v>
+        <v>2.2</v>
       </c>
       <c r="I18">
-        <v>23.94</v>
+        <v>25.83</v>
       </c>
       <c r="J18">
         <v>203.79</v>
@@ -1174,13 +1174,13 @@
         <v>0.7</v>
       </c>
       <c r="G19">
-        <v>5.46</v>
+        <v>8.51</v>
       </c>
       <c r="H19">
-        <v>1.31</v>
+        <v>2.2</v>
       </c>
       <c r="I19">
-        <v>23.94</v>
+        <v>25.83</v>
       </c>
       <c r="J19">
         <v>203.79</v>
@@ -1218,13 +1218,13 @@
         <v>0.05</v>
       </c>
       <c r="G20">
-        <v>5.48</v>
+        <v>8.52</v>
       </c>
       <c r="H20">
-        <v>1.31</v>
+        <v>2.2</v>
       </c>
       <c r="I20">
-        <v>23.91</v>
+        <v>25.81</v>
       </c>
       <c r="J20">
         <v>202.74</v>
@@ -1262,13 +1262,13 @@
         <v>0.05</v>
       </c>
       <c r="G21">
-        <v>20.4</v>
+        <v>23.63</v>
       </c>
       <c r="H21">
-        <v>2.74</v>
+        <v>4.61</v>
       </c>
       <c r="I21">
-        <v>13.45</v>
+        <v>19.52</v>
       </c>
       <c r="J21">
         <v>143.25</v>
@@ -1303,13 +1303,13 @@
         <v>7</v>
       </c>
       <c r="G22">
-        <v>5.48</v>
+        <v>8.52</v>
       </c>
       <c r="H22">
-        <v>1.31</v>
+        <v>2.2</v>
       </c>
       <c r="I22">
-        <v>23.91</v>
+        <v>25.81</v>
       </c>
       <c r="J22">
         <v>202.74</v>
@@ -1344,13 +1344,13 @@
         <v>0.7</v>
       </c>
       <c r="G23">
-        <v>20.4</v>
+        <v>23.63</v>
       </c>
       <c r="H23">
-        <v>2.74</v>
+        <v>4.61</v>
       </c>
       <c r="I23">
-        <v>13.45</v>
+        <v>19.52</v>
       </c>
       <c r="J23">
         <v>143.25</v>
@@ -1385,13 +1385,13 @@
         <v>0.05</v>
       </c>
       <c r="G24">
-        <v>24.91</v>
+        <v>23.79</v>
       </c>
       <c r="H24">
-        <v>2.75</v>
+        <v>4.63</v>
       </c>
       <c r="I24">
-        <v>11.06</v>
+        <v>19.46</v>
       </c>
       <c r="J24">
         <v>142.51</v>
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="G25">
-        <v>24.91</v>
+        <v>23.79</v>
       </c>
       <c r="H25">
-        <v>2.75</v>
+        <v>4.63</v>
       </c>
       <c r="I25">
-        <v>11.05</v>
+        <v>19.46</v>
       </c>
       <c r="J25">
         <v>142.45</v>
@@ -1470,13 +1470,13 @@
         <v>0.05</v>
       </c>
       <c r="G26">
-        <v>5.46</v>
+        <v>8.51</v>
       </c>
       <c r="H26">
-        <v>4.41</v>
+        <v>7.41</v>
       </c>
       <c r="I26">
-        <v>80.73999999999999</v>
+        <v>87.11</v>
       </c>
       <c r="J26">
         <v>161.56</v>
@@ -1514,13 +1514,13 @@
         <v>0.7</v>
       </c>
       <c r="G27">
-        <v>5.46</v>
+        <v>8.51</v>
       </c>
       <c r="H27">
-        <v>4.41</v>
+        <v>7.41</v>
       </c>
       <c r="I27">
-        <v>80.73999999999999</v>
+        <v>87.11</v>
       </c>
       <c r="J27">
         <v>161.56</v>
@@ -1558,13 +1558,13 @@
         <v>0.05</v>
       </c>
       <c r="G28">
-        <v>5.48</v>
+        <v>8.52</v>
       </c>
       <c r="H28">
-        <v>4.41</v>
+        <v>7.41</v>
       </c>
       <c r="I28">
-        <v>80.56</v>
+        <v>86.98</v>
       </c>
       <c r="J28">
         <v>161.49</v>
@@ -1602,13 +1602,13 @@
         <v>0.05</v>
       </c>
       <c r="G29">
-        <v>20.4</v>
+        <v>23.63</v>
       </c>
       <c r="H29">
-        <v>11.94</v>
+        <v>20.06</v>
       </c>
       <c r="I29">
-        <v>58.52</v>
+        <v>84.92</v>
       </c>
       <c r="J29">
         <v>144.72</v>
@@ -1643,13 +1643,13 @@
         <v>7</v>
       </c>
       <c r="G30">
-        <v>5.48</v>
+        <v>8.52</v>
       </c>
       <c r="H30">
-        <v>4.41</v>
+        <v>7.41</v>
       </c>
       <c r="I30">
-        <v>80.56</v>
+        <v>86.98</v>
       </c>
       <c r="J30">
         <v>161.49</v>
@@ -1684,13 +1684,13 @@
         <v>0.7</v>
       </c>
       <c r="G31">
-        <v>20.4</v>
+        <v>23.63</v>
       </c>
       <c r="H31">
-        <v>11.94</v>
+        <v>20.06</v>
       </c>
       <c r="I31">
-        <v>58.53</v>
+        <v>84.92</v>
       </c>
       <c r="J31">
         <v>144.72</v>
@@ -1725,13 +1725,13 @@
         <v>0.05</v>
       </c>
       <c r="G32">
-        <v>24.91</v>
+        <v>23.79</v>
       </c>
       <c r="H32">
-        <v>11.96</v>
+        <v>20.1</v>
       </c>
       <c r="I32">
-        <v>48.01</v>
+        <v>84.48999999999999</v>
       </c>
       <c r="J32">
         <v>144.72</v>
@@ -1763,13 +1763,13 @@
         </is>
       </c>
       <c r="G33">
-        <v>24.91</v>
+        <v>23.79</v>
       </c>
       <c r="H33">
-        <v>11.96</v>
+        <v>20.1</v>
       </c>
       <c r="I33">
-        <v>48.01</v>
+        <v>84.5</v>
       </c>
       <c r="J33">
         <v>144.72</v>
@@ -1810,13 +1810,13 @@
         <v>0.05</v>
       </c>
       <c r="G34">
-        <v>5.46</v>
+        <v>8.51</v>
       </c>
       <c r="H34">
-        <v>3.41</v>
+        <v>5.74</v>
       </c>
       <c r="I34">
-        <v>62.5</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="J34">
         <v>167.96</v>
@@ -1854,13 +1854,13 @@
         <v>0.7</v>
       </c>
       <c r="G35">
-        <v>5.46</v>
+        <v>8.51</v>
       </c>
       <c r="H35">
-        <v>3.41</v>
+        <v>5.74</v>
       </c>
       <c r="I35">
-        <v>62.5</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="J35">
         <v>167.96</v>
@@ -1898,13 +1898,13 @@
         <v>0.05</v>
       </c>
       <c r="G36">
-        <v>5.48</v>
+        <v>8.52</v>
       </c>
       <c r="H36">
-        <v>3.41</v>
+        <v>5.74</v>
       </c>
       <c r="I36">
-        <v>62.32</v>
+        <v>67.28</v>
       </c>
       <c r="J36">
         <v>167.96</v>
@@ -1942,13 +1942,13 @@
         <v>0.05</v>
       </c>
       <c r="G37">
-        <v>20.4</v>
+        <v>23.63</v>
       </c>
       <c r="H37">
-        <v>7.37</v>
+        <v>12.39</v>
       </c>
       <c r="I37">
-        <v>36.14</v>
+        <v>52.43</v>
       </c>
       <c r="J37">
         <v>166.42</v>
@@ -1983,13 +1983,13 @@
         <v>7</v>
       </c>
       <c r="G38">
-        <v>5.48</v>
+        <v>8.52</v>
       </c>
       <c r="H38">
-        <v>3.41</v>
+        <v>5.74</v>
       </c>
       <c r="I38">
-        <v>62.32</v>
+        <v>67.28</v>
       </c>
       <c r="J38">
         <v>167.96</v>
@@ -2024,13 +2024,13 @@
         <v>0.7</v>
       </c>
       <c r="G39">
-        <v>20.4</v>
+        <v>23.63</v>
       </c>
       <c r="H39">
-        <v>7.37</v>
+        <v>12.39</v>
       </c>
       <c r="I39">
-        <v>36.14</v>
+        <v>52.43</v>
       </c>
       <c r="J39">
         <v>166.42</v>
@@ -2065,13 +2065,13 @@
         <v>0.05</v>
       </c>
       <c r="G40">
-        <v>24.91</v>
+        <v>23.79</v>
       </c>
       <c r="H40">
-        <v>7.37</v>
+        <v>12.39</v>
       </c>
       <c r="I40">
-        <v>29.59</v>
+        <v>52.07</v>
       </c>
       <c r="J40">
         <v>166.42</v>
@@ -2103,13 +2103,13 @@
         </is>
       </c>
       <c r="G41">
-        <v>24.91</v>
+        <v>23.79</v>
       </c>
       <c r="H41">
-        <v>7.37</v>
+        <v>12.39</v>
       </c>
       <c r="I41">
-        <v>29.58</v>
+        <v>52.07</v>
       </c>
       <c r="J41">
         <v>166.42</v>
@@ -2150,13 +2150,13 @@
         <v>0.05</v>
       </c>
       <c r="G42">
-        <v>5.46</v>
+        <v>8.51</v>
       </c>
       <c r="H42">
-        <v>1.5</v>
+        <v>2.51</v>
       </c>
       <c r="I42">
-        <v>27.39</v>
+        <v>29.55</v>
       </c>
       <c r="J42">
         <v>226.07</v>
@@ -2194,13 +2194,13 @@
         <v>0.7</v>
       </c>
       <c r="G43">
-        <v>5.46</v>
+        <v>8.51</v>
       </c>
       <c r="H43">
-        <v>1.5</v>
+        <v>2.51</v>
       </c>
       <c r="I43">
-        <v>27.39</v>
+        <v>29.55</v>
       </c>
       <c r="J43">
         <v>226.07</v>
@@ -2238,13 +2238,13 @@
         <v>0.05</v>
       </c>
       <c r="G44">
-        <v>5.48</v>
+        <v>8.52</v>
       </c>
       <c r="H44">
-        <v>1.5</v>
+        <v>2.52</v>
       </c>
       <c r="I44">
-        <v>27.34</v>
+        <v>29.52</v>
       </c>
       <c r="J44">
         <v>225.68</v>
@@ -2282,13 +2282,13 @@
         <v>0.05</v>
       </c>
       <c r="G45">
-        <v>20.4</v>
+        <v>23.63</v>
       </c>
       <c r="H45">
-        <v>3.24</v>
+        <v>5.44</v>
       </c>
       <c r="I45">
-        <v>15.88</v>
+        <v>23.04</v>
       </c>
       <c r="J45">
         <v>167.43</v>
@@ -2323,13 +2323,13 @@
         <v>7</v>
       </c>
       <c r="G46">
-        <v>5.48</v>
+        <v>8.52</v>
       </c>
       <c r="H46">
-        <v>1.5</v>
+        <v>2.52</v>
       </c>
       <c r="I46">
-        <v>27.34</v>
+        <v>29.52</v>
       </c>
       <c r="J46">
         <v>225.68</v>
@@ -2364,13 +2364,13 @@
         <v>0.7</v>
       </c>
       <c r="G47">
-        <v>20.4</v>
+        <v>23.63</v>
       </c>
       <c r="H47">
-        <v>3.24</v>
+        <v>5.44</v>
       </c>
       <c r="I47">
-        <v>15.88</v>
+        <v>23.04</v>
       </c>
       <c r="J47">
         <v>167.4</v>
@@ -2405,13 +2405,13 @@
         <v>0.05</v>
       </c>
       <c r="G48">
-        <v>24.91</v>
+        <v>23.79</v>
       </c>
       <c r="H48">
-        <v>3.25</v>
+        <v>5.46</v>
       </c>
       <c r="I48">
-        <v>13.04</v>
+        <v>22.95</v>
       </c>
       <c r="J48">
         <v>166.07</v>
@@ -2443,13 +2443,13 @@
         </is>
       </c>
       <c r="G49">
-        <v>24.91</v>
+        <v>23.79</v>
       </c>
       <c r="H49">
-        <v>3.25</v>
+        <v>5.46</v>
       </c>
       <c r="I49">
-        <v>13.04</v>
+        <v>22.95</v>
       </c>
       <c r="J49">
         <v>166.05</v>
@@ -2490,13 +2490,13 @@
         <v>0.05</v>
       </c>
       <c r="G50">
-        <v>5.46</v>
+        <v>8.51</v>
       </c>
       <c r="H50">
-        <v>3.92</v>
+        <v>6.58</v>
       </c>
       <c r="I50">
-        <v>71.7</v>
+        <v>77.34999999999999</v>
       </c>
       <c r="J50">
         <v>142.17</v>
@@ -2534,13 +2534,13 @@
         <v>0.7</v>
       </c>
       <c r="G51">
-        <v>5.46</v>
+        <v>8.51</v>
       </c>
       <c r="H51">
-        <v>3.92</v>
+        <v>6.58</v>
       </c>
       <c r="I51">
-        <v>71.7</v>
+        <v>77.34999999999999</v>
       </c>
       <c r="J51">
         <v>142.17</v>
@@ -2578,13 +2578,13 @@
         <v>0.05</v>
       </c>
       <c r="G52">
-        <v>5.48</v>
+        <v>8.52</v>
       </c>
       <c r="H52">
-        <v>3.92</v>
+        <v>6.58</v>
       </c>
       <c r="I52">
-        <v>71.54000000000001</v>
+        <v>77.23999999999999</v>
       </c>
       <c r="J52">
         <v>142.17</v>
@@ -2622,13 +2622,13 @@
         <v>0.05</v>
       </c>
       <c r="G53">
-        <v>20.4</v>
+        <v>23.63</v>
       </c>
       <c r="H53">
-        <v>10.53</v>
+        <v>17.69</v>
       </c>
       <c r="I53">
-        <v>51.6</v>
+        <v>74.88</v>
       </c>
       <c r="J53">
         <v>164.77</v>
@@ -2663,13 +2663,13 @@
         <v>7</v>
       </c>
       <c r="G54">
-        <v>5.48</v>
+        <v>8.52</v>
       </c>
       <c r="H54">
-        <v>3.92</v>
+        <v>6.58</v>
       </c>
       <c r="I54">
-        <v>71.54000000000001</v>
+        <v>77.23999999999999</v>
       </c>
       <c r="J54">
         <v>142.17</v>
@@ -2704,13 +2704,13 @@
         <v>0.7</v>
       </c>
       <c r="G55">
-        <v>20.4</v>
+        <v>23.63</v>
       </c>
       <c r="H55">
-        <v>10.53</v>
+        <v>17.69</v>
       </c>
       <c r="I55">
-        <v>51.61</v>
+        <v>74.88</v>
       </c>
       <c r="J55">
         <v>164.75</v>
@@ -2745,13 +2745,13 @@
         <v>0.05</v>
       </c>
       <c r="G56">
-        <v>24.91</v>
+        <v>23.79</v>
       </c>
       <c r="H56">
-        <v>10.55</v>
+        <v>17.73</v>
       </c>
       <c r="I56">
-        <v>42.34</v>
+        <v>74.52</v>
       </c>
       <c r="J56">
         <v>165.35</v>
@@ -2783,13 +2783,13 @@
         </is>
       </c>
       <c r="G57">
-        <v>24.91</v>
+        <v>23.79</v>
       </c>
       <c r="H57">
-        <v>10.55</v>
+        <v>17.73</v>
       </c>
       <c r="I57">
-        <v>42.34</v>
+        <v>74.52</v>
       </c>
       <c r="J57">
         <v>165.3</v>
@@ -2830,13 +2830,13 @@
         <v>0.05</v>
       </c>
       <c r="G58">
-        <v>5.46</v>
+        <v>8.51</v>
       </c>
       <c r="H58">
-        <v>3.43</v>
+        <v>5.77</v>
       </c>
       <c r="I58">
-        <v>62.89</v>
+        <v>67.84999999999999</v>
       </c>
       <c r="J58">
         <v>112.55</v>
@@ -2874,13 +2874,13 @@
         <v>0.7</v>
       </c>
       <c r="G59">
-        <v>5.46</v>
+        <v>8.51</v>
       </c>
       <c r="H59">
-        <v>3.43</v>
+        <v>5.77</v>
       </c>
       <c r="I59">
-        <v>62.89</v>
+        <v>67.84999999999999</v>
       </c>
       <c r="J59">
         <v>112.55</v>
@@ -2918,13 +2918,13 @@
         <v>0.05</v>
       </c>
       <c r="G60">
-        <v>5.48</v>
+        <v>8.52</v>
       </c>
       <c r="H60">
-        <v>3.43</v>
+        <v>5.77</v>
       </c>
       <c r="I60">
-        <v>62.71</v>
+        <v>67.70999999999999</v>
       </c>
       <c r="J60">
         <v>112.55</v>
@@ -2962,13 +2962,13 @@
         <v>0.05</v>
       </c>
       <c r="G61">
-        <v>20.4</v>
+        <v>23.63</v>
       </c>
       <c r="H61">
-        <v>7.39</v>
+        <v>12.42</v>
       </c>
       <c r="I61">
-        <v>36.23</v>
+        <v>52.56</v>
       </c>
       <c r="J61">
         <v>113.51</v>
@@ -3003,13 +3003,13 @@
         <v>7</v>
       </c>
       <c r="G62">
-        <v>5.48</v>
+        <v>8.52</v>
       </c>
       <c r="H62">
-        <v>3.43</v>
+        <v>5.77</v>
       </c>
       <c r="I62">
-        <v>62.71</v>
+        <v>67.70999999999999</v>
       </c>
       <c r="J62">
         <v>112.55</v>
@@ -3044,13 +3044,13 @@
         <v>0.7</v>
       </c>
       <c r="G63">
-        <v>20.4</v>
+        <v>23.63</v>
       </c>
       <c r="H63">
-        <v>7.39</v>
+        <v>12.42</v>
       </c>
       <c r="I63">
-        <v>36.22</v>
+        <v>52.56</v>
       </c>
       <c r="J63">
         <v>113.51</v>
@@ -3085,13 +3085,13 @@
         <v>0.05</v>
       </c>
       <c r="G64">
-        <v>24.91</v>
+        <v>23.79</v>
       </c>
       <c r="H64">
-        <v>7.39</v>
+        <v>12.42</v>
       </c>
       <c r="I64">
-        <v>29.66</v>
+        <v>52.2</v>
       </c>
       <c r="J64">
         <v>113.51</v>
@@ -3123,13 +3123,13 @@
         </is>
       </c>
       <c r="G65">
-        <v>24.91</v>
+        <v>23.79</v>
       </c>
       <c r="H65">
-        <v>7.39</v>
+        <v>12.42</v>
       </c>
       <c r="I65">
-        <v>29.66</v>
+        <v>52.2</v>
       </c>
       <c r="J65">
         <v>113.51</v>
@@ -3170,13 +3170,13 @@
         <v>0.05</v>
       </c>
       <c r="G66">
-        <v>5.46</v>
+        <v>8.51</v>
       </c>
       <c r="H66">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="I66">
-        <v>22.9</v>
+        <v>24.7</v>
       </c>
       <c r="J66">
         <v>257.42</v>
@@ -3214,13 +3214,13 @@
         <v>0.7</v>
       </c>
       <c r="G67">
-        <v>5.46</v>
+        <v>8.51</v>
       </c>
       <c r="H67">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="I67">
-        <v>22.9</v>
+        <v>24.7</v>
       </c>
       <c r="J67">
         <v>257.42</v>
@@ -3258,13 +3258,13 @@
         <v>0.05</v>
       </c>
       <c r="G68">
-        <v>5.48</v>
+        <v>8.52</v>
       </c>
       <c r="H68">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="I68">
-        <v>22.85</v>
+        <v>24.68</v>
       </c>
       <c r="J68">
         <v>256.67</v>
@@ -3302,13 +3302,13 @@
         <v>0.05</v>
       </c>
       <c r="G69">
-        <v>20.4</v>
+        <v>23.63</v>
       </c>
       <c r="H69">
-        <v>2.7</v>
+        <v>4.54</v>
       </c>
       <c r="I69">
-        <v>13.25</v>
+        <v>19.23</v>
       </c>
       <c r="J69">
         <v>198.79</v>
@@ -3343,13 +3343,13 @@
         <v>7</v>
       </c>
       <c r="G70">
-        <v>5.48</v>
+        <v>8.52</v>
       </c>
       <c r="H70">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="I70">
-        <v>22.85</v>
+        <v>24.68</v>
       </c>
       <c r="J70">
         <v>256.67</v>
@@ -3384,13 +3384,13 @@
         <v>0.7</v>
       </c>
       <c r="G71">
-        <v>20.4</v>
+        <v>23.63</v>
       </c>
       <c r="H71">
-        <v>2.7</v>
+        <v>4.54</v>
       </c>
       <c r="I71">
-        <v>13.25</v>
+        <v>19.22</v>
       </c>
       <c r="J71">
         <v>198.79</v>
@@ -3425,13 +3425,13 @@
         <v>0.05</v>
       </c>
       <c r="G72">
-        <v>24.91</v>
+        <v>23.79</v>
       </c>
       <c r="H72">
-        <v>2.71</v>
+        <v>4.56</v>
       </c>
       <c r="I72">
-        <v>10.89</v>
+        <v>19.16</v>
       </c>
       <c r="J72">
         <v>199.87</v>
@@ -3463,13 +3463,13 @@
         </is>
       </c>
       <c r="G73">
-        <v>24.91</v>
+        <v>23.79</v>
       </c>
       <c r="H73">
-        <v>2.71</v>
+        <v>4.56</v>
       </c>
       <c r="I73">
-        <v>10.89</v>
+        <v>19.16</v>
       </c>
       <c r="J73">
         <v>199.4</v>
@@ -3510,13 +3510,13 @@
         <v>0.05</v>
       </c>
       <c r="G74">
-        <v>5.46</v>
+        <v>8.51</v>
       </c>
       <c r="H74">
-        <v>4.62</v>
+        <v>7.76</v>
       </c>
       <c r="I74">
-        <v>84.56999999999999</v>
+        <v>91.23</v>
       </c>
       <c r="J74">
         <v>184.88</v>
@@ -3554,13 +3554,13 @@
         <v>0.7</v>
       </c>
       <c r="G75">
-        <v>5.46</v>
+        <v>8.51</v>
       </c>
       <c r="H75">
-        <v>4.62</v>
+        <v>7.76</v>
       </c>
       <c r="I75">
-        <v>84.56999999999999</v>
+        <v>91.23</v>
       </c>
       <c r="J75">
         <v>184.88</v>
@@ -3598,13 +3598,13 @@
         <v>0.05</v>
       </c>
       <c r="G76">
-        <v>5.48</v>
+        <v>8.52</v>
       </c>
       <c r="H76">
-        <v>4.62</v>
+        <v>7.76</v>
       </c>
       <c r="I76">
-        <v>84.37</v>
+        <v>91.09</v>
       </c>
       <c r="J76">
         <v>184.9</v>
@@ -3642,13 +3642,13 @@
         <v>0.05</v>
       </c>
       <c r="G77">
-        <v>20.4</v>
+        <v>23.63</v>
       </c>
       <c r="H77">
-        <v>12.76</v>
+        <v>21.44</v>
       </c>
       <c r="I77">
-        <v>62.56</v>
+        <v>90.77</v>
       </c>
       <c r="J77">
         <v>190.7</v>
@@ -3683,13 +3683,13 @@
         <v>7</v>
       </c>
       <c r="G78">
-        <v>5.48</v>
+        <v>8.52</v>
       </c>
       <c r="H78">
-        <v>4.62</v>
+        <v>7.76</v>
       </c>
       <c r="I78">
-        <v>84.37</v>
+        <v>91.09</v>
       </c>
       <c r="J78">
         <v>184.9</v>
@@ -3724,13 +3724,13 @@
         <v>0.7</v>
       </c>
       <c r="G79">
-        <v>20.4</v>
+        <v>23.63</v>
       </c>
       <c r="H79">
-        <v>12.76</v>
+        <v>21.45</v>
       </c>
       <c r="I79">
-        <v>62.56</v>
+        <v>90.77</v>
       </c>
       <c r="J79">
         <v>190.7</v>
@@ -3765,13 +3765,13 @@
         <v>0.05</v>
       </c>
       <c r="G80">
-        <v>24.91</v>
+        <v>23.79</v>
       </c>
       <c r="H80">
-        <v>12.78</v>
+        <v>21.48</v>
       </c>
       <c r="I80">
-        <v>51.31</v>
+        <v>90.3</v>
       </c>
       <c r="J80">
         <v>190.78</v>
@@ -3803,13 +3803,13 @@
         </is>
       </c>
       <c r="G81">
-        <v>24.91</v>
+        <v>23.79</v>
       </c>
       <c r="H81">
-        <v>12.78</v>
+        <v>21.48</v>
       </c>
       <c r="I81">
-        <v>51.31</v>
+        <v>90.3</v>
       </c>
       <c r="J81">
         <v>190.78</v>
@@ -3850,13 +3850,13 @@
         <v>0.05</v>
       </c>
       <c r="G82">
-        <v>5.46</v>
+        <v>8.51</v>
       </c>
       <c r="H82">
-        <v>3.57</v>
+        <v>6</v>
       </c>
       <c r="I82">
-        <v>65.37</v>
+        <v>70.52</v>
       </c>
       <c r="J82">
         <v>193.59</v>
@@ -3894,13 +3894,13 @@
         <v>0.7</v>
       </c>
       <c r="G83">
-        <v>5.46</v>
+        <v>8.51</v>
       </c>
       <c r="H83">
-        <v>3.57</v>
+        <v>6</v>
       </c>
       <c r="I83">
-        <v>65.37</v>
+        <v>70.52</v>
       </c>
       <c r="J83">
         <v>193.59</v>
@@ -3938,13 +3938,13 @@
         <v>0.05</v>
       </c>
       <c r="G84">
-        <v>5.48</v>
+        <v>8.52</v>
       </c>
       <c r="H84">
-        <v>3.57</v>
+        <v>6</v>
       </c>
       <c r="I84">
-        <v>65.18000000000001</v>
+        <v>70.37</v>
       </c>
       <c r="J84">
         <v>193.59</v>
@@ -3982,13 +3982,13 @@
         <v>0.05</v>
       </c>
       <c r="G85">
-        <v>20.4</v>
+        <v>23.63</v>
       </c>
       <c r="H85">
-        <v>7.74</v>
+        <v>13.01</v>
       </c>
       <c r="I85">
-        <v>37.96</v>
+        <v>55.07</v>
       </c>
       <c r="J85">
         <v>199.43</v>
@@ -4023,13 +4023,13 @@
         <v>7</v>
       </c>
       <c r="G86">
-        <v>5.48</v>
+        <v>8.52</v>
       </c>
       <c r="H86">
-        <v>3.57</v>
+        <v>6</v>
       </c>
       <c r="I86">
-        <v>65.18000000000001</v>
+        <v>70.37</v>
       </c>
       <c r="J86">
         <v>193.59</v>
@@ -4064,13 +4064,13 @@
         <v>0.7</v>
       </c>
       <c r="G87">
-        <v>20.4</v>
+        <v>23.63</v>
       </c>
       <c r="H87">
-        <v>7.74</v>
+        <v>13.01</v>
       </c>
       <c r="I87">
-        <v>37.95</v>
+        <v>55.07</v>
       </c>
       <c r="J87">
         <v>199.43</v>
@@ -4105,13 +4105,13 @@
         <v>0.05</v>
       </c>
       <c r="G88">
-        <v>24.91</v>
+        <v>23.79</v>
       </c>
       <c r="H88">
-        <v>7.74</v>
+        <v>13.01</v>
       </c>
       <c r="I88">
-        <v>31.08</v>
+        <v>54.7</v>
       </c>
       <c r="J88">
         <v>199.43</v>
@@ -4143,13 +4143,13 @@
         </is>
       </c>
       <c r="G89">
-        <v>24.91</v>
+        <v>23.79</v>
       </c>
       <c r="H89">
-        <v>7.74</v>
+        <v>13.01</v>
       </c>
       <c r="I89">
-        <v>31.07</v>
+        <v>54.69</v>
       </c>
       <c r="J89">
         <v>199.43</v>
@@ -4190,13 +4190,13 @@
         <v>0.05</v>
       </c>
       <c r="G90">
-        <v>5.46</v>
+        <v>8.51</v>
       </c>
       <c r="H90">
-        <v>1.42</v>
+        <v>2.39</v>
       </c>
       <c r="I90">
-        <v>26.01</v>
+        <v>28.06</v>
       </c>
       <c r="J90">
         <v>240.17</v>
@@ -4234,13 +4234,13 @@
         <v>0.7</v>
       </c>
       <c r="G91">
-        <v>5.46</v>
+        <v>8.51</v>
       </c>
       <c r="H91">
-        <v>1.42</v>
+        <v>2.39</v>
       </c>
       <c r="I91">
-        <v>26.01</v>
+        <v>28.06</v>
       </c>
       <c r="J91">
         <v>240.17</v>
@@ -4278,13 +4278,13 @@
         <v>0.05</v>
       </c>
       <c r="G92">
-        <v>5.48</v>
+        <v>8.52</v>
       </c>
       <c r="H92">
-        <v>1.42</v>
+        <v>2.39</v>
       </c>
       <c r="I92">
-        <v>25.96</v>
+        <v>28.03</v>
       </c>
       <c r="J92">
         <v>240.12</v>
@@ -4322,13 +4322,13 @@
         <v>0.05</v>
       </c>
       <c r="G93">
-        <v>20.4</v>
+        <v>23.63</v>
       </c>
       <c r="H93">
-        <v>3.16</v>
+        <v>5.31</v>
       </c>
       <c r="I93">
-        <v>15.49</v>
+        <v>22.48</v>
       </c>
       <c r="J93">
         <v>213.99</v>
@@ -4363,13 +4363,13 @@
         <v>7</v>
       </c>
       <c r="G94">
-        <v>5.48</v>
+        <v>8.52</v>
       </c>
       <c r="H94">
-        <v>1.42</v>
+        <v>2.39</v>
       </c>
       <c r="I94">
-        <v>25.96</v>
+        <v>28.03</v>
       </c>
       <c r="J94">
         <v>240.12</v>
@@ -4404,13 +4404,13 @@
         <v>0.7</v>
       </c>
       <c r="G95">
-        <v>20.4</v>
+        <v>23.63</v>
       </c>
       <c r="H95">
-        <v>3.16</v>
+        <v>5.31</v>
       </c>
       <c r="I95">
-        <v>15.49</v>
+        <v>22.48</v>
       </c>
       <c r="J95">
         <v>213.91</v>
@@ -4445,13 +4445,13 @@
         <v>0.05</v>
       </c>
       <c r="G96">
-        <v>24.91</v>
+        <v>23.79</v>
       </c>
       <c r="H96">
-        <v>3.17</v>
+        <v>5.33</v>
       </c>
       <c r="I96">
-        <v>12.72</v>
+        <v>22.39</v>
       </c>
       <c r="J96">
         <v>213.87</v>
@@ -4483,13 +4483,13 @@
         </is>
       </c>
       <c r="G97">
-        <v>24.91</v>
+        <v>23.79</v>
       </c>
       <c r="H97">
-        <v>3.17</v>
+        <v>5.33</v>
       </c>
       <c r="I97">
-        <v>12.72</v>
+        <v>22.39</v>
       </c>
       <c r="J97">
         <v>213.86</v>

--- a/output/tables/simulation/simulation_results_7m.xlsx
+++ b/output/tables/simulation/simulation_results_7m.xlsx
@@ -1473,22 +1473,22 @@
         <v>8.51</v>
       </c>
       <c r="H26">
-        <v>7.41</v>
+        <v>7.36</v>
       </c>
       <c r="I26">
-        <v>87.11</v>
+        <v>86.51000000000001</v>
       </c>
       <c r="J26">
-        <v>161.56</v>
+        <v>155.12</v>
       </c>
       <c r="K26">
-        <v>193.55</v>
+        <v>195.12</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>565.34</v>
+        <v>587.14</v>
       </c>
     </row>
     <row r="27">
@@ -1517,22 +1517,22 @@
         <v>8.51</v>
       </c>
       <c r="H27">
-        <v>7.41</v>
+        <v>7.36</v>
       </c>
       <c r="I27">
-        <v>87.11</v>
+        <v>86.51000000000001</v>
       </c>
       <c r="J27">
-        <v>161.56</v>
+        <v>155.12</v>
       </c>
       <c r="K27">
-        <v>193.55</v>
+        <v>195.12</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>565.34</v>
+        <v>587.14</v>
       </c>
     </row>
     <row r="28">
@@ -1561,22 +1561,22 @@
         <v>8.52</v>
       </c>
       <c r="H28">
-        <v>7.41</v>
+        <v>7.36</v>
       </c>
       <c r="I28">
-        <v>86.98</v>
+        <v>86.38</v>
       </c>
       <c r="J28">
-        <v>161.49</v>
+        <v>155.1</v>
       </c>
       <c r="K28">
-        <v>193.52</v>
+        <v>195.09</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>565.34</v>
+        <v>587.03</v>
       </c>
     </row>
     <row r="29">
@@ -1605,22 +1605,22 @@
         <v>23.63</v>
       </c>
       <c r="H29">
-        <v>20.06</v>
+        <v>19.95</v>
       </c>
       <c r="I29">
-        <v>84.92</v>
+        <v>84.43000000000001</v>
       </c>
       <c r="J29">
-        <v>144.72</v>
+        <v>143.97</v>
       </c>
       <c r="K29">
-        <v>191.56</v>
+        <v>193.19</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29">
-        <v>587.8099999999999</v>
+        <v>614.8</v>
       </c>
     </row>
     <row r="30">
@@ -1646,22 +1646,22 @@
         <v>8.52</v>
       </c>
       <c r="H30">
-        <v>7.41</v>
+        <v>7.36</v>
       </c>
       <c r="I30">
-        <v>86.98</v>
+        <v>86.38</v>
       </c>
       <c r="J30">
-        <v>161.49</v>
+        <v>155.1</v>
       </c>
       <c r="K30">
-        <v>193.52</v>
+        <v>195.09</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30">
-        <v>565.34</v>
+        <v>587.03</v>
       </c>
     </row>
     <row r="31">
@@ -1687,22 +1687,22 @@
         <v>23.63</v>
       </c>
       <c r="H31">
-        <v>20.06</v>
+        <v>19.95</v>
       </c>
       <c r="I31">
-        <v>84.92</v>
+        <v>84.43000000000001</v>
       </c>
       <c r="J31">
-        <v>144.72</v>
+        <v>143.97</v>
       </c>
       <c r="K31">
-        <v>191.56</v>
+        <v>193.18</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>587.79</v>
+        <v>614.8</v>
       </c>
     </row>
     <row r="32">
@@ -1728,22 +1728,22 @@
         <v>23.79</v>
       </c>
       <c r="H32">
-        <v>20.1</v>
+        <v>19.98</v>
       </c>
       <c r="I32">
-        <v>84.48999999999999</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="J32">
-        <v>144.72</v>
+        <v>143.97</v>
       </c>
       <c r="K32">
-        <v>191.5</v>
+        <v>193.14</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>587.51</v>
+        <v>614.08</v>
       </c>
     </row>
     <row r="33">
@@ -1766,22 +1766,22 @@
         <v>23.79</v>
       </c>
       <c r="H33">
-        <v>20.1</v>
+        <v>19.99</v>
       </c>
       <c r="I33">
-        <v>84.5</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="J33">
-        <v>144.72</v>
+        <v>143.97</v>
       </c>
       <c r="K33">
-        <v>191.5</v>
+        <v>193.14</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>587.51</v>
+        <v>614.0599999999999</v>
       </c>
     </row>
     <row r="34">
@@ -1813,22 +1813,22 @@
         <v>8.51</v>
       </c>
       <c r="H34">
-        <v>5.74</v>
+        <v>5.81</v>
       </c>
       <c r="I34">
-        <v>67.43000000000001</v>
+        <v>68.34999999999999</v>
       </c>
       <c r="J34">
-        <v>167.96</v>
+        <v>157.58</v>
       </c>
       <c r="K34">
-        <v>203.48</v>
+        <v>197.52</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34">
-        <v>545.42</v>
+        <v>505.62</v>
       </c>
     </row>
     <row r="35">
@@ -1857,22 +1857,22 @@
         <v>8.51</v>
       </c>
       <c r="H35">
-        <v>5.74</v>
+        <v>5.81</v>
       </c>
       <c r="I35">
-        <v>67.43000000000001</v>
+        <v>68.34999999999999</v>
       </c>
       <c r="J35">
-        <v>167.96</v>
+        <v>157.58</v>
       </c>
       <c r="K35">
-        <v>203.48</v>
+        <v>197.52</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>545.42</v>
+        <v>505.62</v>
       </c>
     </row>
     <row r="36">
@@ -1901,22 +1901,22 @@
         <v>8.52</v>
       </c>
       <c r="H36">
-        <v>5.74</v>
+        <v>5.81</v>
       </c>
       <c r="I36">
-        <v>67.28</v>
+        <v>68.2</v>
       </c>
       <c r="J36">
-        <v>167.96</v>
+        <v>157.58</v>
       </c>
       <c r="K36">
-        <v>203.48</v>
+        <v>197.52</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
       <c r="M36">
-        <v>545.42</v>
+        <v>505.62</v>
       </c>
     </row>
     <row r="37">
@@ -1945,22 +1945,22 @@
         <v>23.63</v>
       </c>
       <c r="H37">
-        <v>12.39</v>
+        <v>12.55</v>
       </c>
       <c r="I37">
-        <v>52.43</v>
+        <v>53.1</v>
       </c>
       <c r="J37">
-        <v>166.42</v>
+        <v>157.58</v>
       </c>
       <c r="K37">
-        <v>211.62</v>
+        <v>204.87</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
       <c r="M37">
-        <v>590</v>
+        <v>577.77</v>
       </c>
     </row>
     <row r="38">
@@ -1986,22 +1986,22 @@
         <v>8.52</v>
       </c>
       <c r="H38">
-        <v>5.74</v>
+        <v>5.81</v>
       </c>
       <c r="I38">
-        <v>67.28</v>
+        <v>68.2</v>
       </c>
       <c r="J38">
-        <v>167.96</v>
+        <v>157.58</v>
       </c>
       <c r="K38">
-        <v>203.48</v>
+        <v>197.52</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>545.42</v>
+        <v>505.62</v>
       </c>
     </row>
     <row r="39">
@@ -2027,22 +2027,22 @@
         <v>23.63</v>
       </c>
       <c r="H39">
-        <v>12.39</v>
+        <v>12.55</v>
       </c>
       <c r="I39">
-        <v>52.43</v>
+        <v>53.1</v>
       </c>
       <c r="J39">
-        <v>166.42</v>
+        <v>157.58</v>
       </c>
       <c r="K39">
-        <v>211.62</v>
+        <v>204.87</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>590</v>
+        <v>577.77</v>
       </c>
     </row>
     <row r="40">
@@ -2068,22 +2068,22 @@
         <v>23.79</v>
       </c>
       <c r="H40">
-        <v>12.39</v>
+        <v>12.55</v>
       </c>
       <c r="I40">
-        <v>52.07</v>
+        <v>52.74</v>
       </c>
       <c r="J40">
-        <v>166.42</v>
+        <v>157.58</v>
       </c>
       <c r="K40">
-        <v>211.62</v>
+        <v>204.87</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
       <c r="M40">
-        <v>590</v>
+        <v>577.77</v>
       </c>
     </row>
     <row r="41">
@@ -2106,22 +2106,22 @@
         <v>23.79</v>
       </c>
       <c r="H41">
-        <v>12.39</v>
+        <v>12.55</v>
       </c>
       <c r="I41">
-        <v>52.07</v>
+        <v>52.73</v>
       </c>
       <c r="J41">
-        <v>166.42</v>
+        <v>157.58</v>
       </c>
       <c r="K41">
-        <v>211.62</v>
+        <v>204.87</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="M41">
-        <v>590</v>
+        <v>577.77</v>
       </c>
     </row>
     <row r="42">
@@ -2159,16 +2159,16 @@
         <v>29.55</v>
       </c>
       <c r="J42">
-        <v>226.07</v>
+        <v>216.63</v>
       </c>
       <c r="K42">
-        <v>240.83</v>
+        <v>234.58</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
       <c r="M42">
-        <v>594.5</v>
+        <v>597.8</v>
       </c>
     </row>
     <row r="43">
@@ -2203,16 +2203,16 @@
         <v>29.55</v>
       </c>
       <c r="J43">
-        <v>226.07</v>
+        <v>216.63</v>
       </c>
       <c r="K43">
-        <v>240.83</v>
+        <v>234.58</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
       <c r="M43">
-        <v>594.5</v>
+        <v>597.8</v>
       </c>
     </row>
     <row r="44">
@@ -2247,16 +2247,16 @@
         <v>29.52</v>
       </c>
       <c r="J44">
-        <v>225.68</v>
+        <v>216.1</v>
       </c>
       <c r="K44">
-        <v>240.58</v>
+        <v>234.33</v>
       </c>
       <c r="L44">
         <v>0</v>
       </c>
       <c r="M44">
-        <v>594.5</v>
+        <v>597.71</v>
       </c>
     </row>
     <row r="45">
@@ -2291,16 +2291,16 @@
         <v>23.04</v>
       </c>
       <c r="J45">
-        <v>167.43</v>
+        <v>162.75</v>
       </c>
       <c r="K45">
-        <v>223.29</v>
+        <v>218.01</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
       <c r="M45">
-        <v>600.8200000000001</v>
+        <v>605.87</v>
       </c>
     </row>
     <row r="46">
@@ -2332,16 +2332,16 @@
         <v>29.52</v>
       </c>
       <c r="J46">
-        <v>225.68</v>
+        <v>216.1</v>
       </c>
       <c r="K46">
-        <v>240.58</v>
+        <v>234.33</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
       <c r="M46">
-        <v>594.5</v>
+        <v>597.71</v>
       </c>
     </row>
     <row r="47">
@@ -2373,16 +2373,16 @@
         <v>23.04</v>
       </c>
       <c r="J47">
-        <v>167.4</v>
+        <v>162.57</v>
       </c>
       <c r="K47">
-        <v>223.27</v>
+        <v>217.99</v>
       </c>
       <c r="L47">
         <v>0</v>
       </c>
       <c r="M47">
-        <v>600.8200000000001</v>
+        <v>605.87</v>
       </c>
     </row>
     <row r="48">
@@ -2414,16 +2414,16 @@
         <v>22.95</v>
       </c>
       <c r="J48">
-        <v>166.07</v>
+        <v>161.21</v>
       </c>
       <c r="K48">
-        <v>222.73</v>
+        <v>217.47</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
       <c r="M48">
-        <v>600.6900000000001</v>
+        <v>605.6</v>
       </c>
     </row>
     <row r="49">
@@ -2452,16 +2452,16 @@
         <v>22.95</v>
       </c>
       <c r="J49">
-        <v>166.05</v>
+        <v>161.07</v>
       </c>
       <c r="K49">
-        <v>222.71</v>
+        <v>217.45</v>
       </c>
       <c r="L49">
         <v>0</v>
       </c>
       <c r="M49">
-        <v>600.67</v>
+        <v>605.5700000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3513,22 +3513,22 @@
         <v>8.51</v>
       </c>
       <c r="H74">
-        <v>7.76</v>
+        <v>7.72</v>
       </c>
       <c r="I74">
-        <v>91.23</v>
+        <v>90.7</v>
       </c>
       <c r="J74">
-        <v>184.88</v>
+        <v>173.8</v>
       </c>
       <c r="K74">
-        <v>221.8</v>
+        <v>224.08</v>
       </c>
       <c r="L74">
         <v>0</v>
       </c>
       <c r="M74">
-        <v>634.37</v>
+        <v>657.92</v>
       </c>
     </row>
     <row r="75">
@@ -3557,22 +3557,22 @@
         <v>8.51</v>
       </c>
       <c r="H75">
-        <v>7.76</v>
+        <v>7.72</v>
       </c>
       <c r="I75">
-        <v>91.23</v>
+        <v>90.7</v>
       </c>
       <c r="J75">
-        <v>184.88</v>
+        <v>173.8</v>
       </c>
       <c r="K75">
-        <v>221.8</v>
+        <v>224.08</v>
       </c>
       <c r="L75">
         <v>0</v>
       </c>
       <c r="M75">
-        <v>634.37</v>
+        <v>657.92</v>
       </c>
     </row>
     <row r="76">
@@ -3601,22 +3601,22 @@
         <v>8.52</v>
       </c>
       <c r="H76">
-        <v>7.76</v>
+        <v>7.72</v>
       </c>
       <c r="I76">
-        <v>91.09</v>
+        <v>90.56</v>
       </c>
       <c r="J76">
-        <v>184.9</v>
+        <v>173.82</v>
       </c>
       <c r="K76">
-        <v>221.8</v>
+        <v>224.09</v>
       </c>
       <c r="L76">
         <v>0</v>
       </c>
       <c r="M76">
-        <v>634.37</v>
+        <v>657.4</v>
       </c>
     </row>
     <row r="77">
@@ -3645,22 +3645,22 @@
         <v>23.63</v>
       </c>
       <c r="H77">
-        <v>21.44</v>
+        <v>21.34</v>
       </c>
       <c r="I77">
-        <v>90.77</v>
+        <v>90.34999999999999</v>
       </c>
       <c r="J77">
-        <v>190.7</v>
+        <v>182.21</v>
       </c>
       <c r="K77">
-        <v>257.11</v>
+        <v>260.68</v>
       </c>
       <c r="L77">
         <v>0</v>
       </c>
       <c r="M77">
-        <v>723.54</v>
+        <v>749.5599999999999</v>
       </c>
     </row>
     <row r="78">
@@ -3686,22 +3686,22 @@
         <v>8.52</v>
       </c>
       <c r="H78">
-        <v>7.76</v>
+        <v>7.72</v>
       </c>
       <c r="I78">
-        <v>91.09</v>
+        <v>90.56</v>
       </c>
       <c r="J78">
-        <v>184.9</v>
+        <v>173.82</v>
       </c>
       <c r="K78">
-        <v>221.8</v>
+        <v>224.09</v>
       </c>
       <c r="L78">
         <v>0</v>
       </c>
       <c r="M78">
-        <v>634.37</v>
+        <v>657.4</v>
       </c>
     </row>
     <row r="79">
@@ -3727,22 +3727,22 @@
         <v>23.63</v>
       </c>
       <c r="H79">
-        <v>21.45</v>
+        <v>21.35</v>
       </c>
       <c r="I79">
-        <v>90.77</v>
+        <v>90.34999999999999</v>
       </c>
       <c r="J79">
-        <v>190.7</v>
+        <v>182.21</v>
       </c>
       <c r="K79">
-        <v>257.11</v>
+        <v>260.67</v>
       </c>
       <c r="L79">
         <v>0</v>
       </c>
       <c r="M79">
-        <v>723.5</v>
+        <v>749.54</v>
       </c>
     </row>
     <row r="80">
@@ -3768,22 +3768,22 @@
         <v>23.79</v>
       </c>
       <c r="H80">
-        <v>21.48</v>
+        <v>21.38</v>
       </c>
       <c r="I80">
-        <v>90.3</v>
+        <v>89.88</v>
       </c>
       <c r="J80">
-        <v>190.78</v>
+        <v>182.3</v>
       </c>
       <c r="K80">
-        <v>257.1</v>
+        <v>260.67</v>
       </c>
       <c r="L80">
         <v>0</v>
       </c>
       <c r="M80">
-        <v>723.09</v>
+        <v>749.39</v>
       </c>
     </row>
     <row r="81">
@@ -3806,22 +3806,22 @@
         <v>23.79</v>
       </c>
       <c r="H81">
-        <v>21.48</v>
+        <v>21.38</v>
       </c>
       <c r="I81">
-        <v>90.3</v>
+        <v>89.88</v>
       </c>
       <c r="J81">
-        <v>190.78</v>
+        <v>182.29</v>
       </c>
       <c r="K81">
-        <v>257.1</v>
+        <v>260.67</v>
       </c>
       <c r="L81">
         <v>0</v>
       </c>
       <c r="M81">
-        <v>723.08</v>
+        <v>749.38</v>
       </c>
     </row>
     <row r="82">
@@ -3853,22 +3853,22 @@
         <v>8.51</v>
       </c>
       <c r="H82">
-        <v>6</v>
+        <v>6.08</v>
       </c>
       <c r="I82">
-        <v>70.52</v>
+        <v>71.44</v>
       </c>
       <c r="J82">
-        <v>193.59</v>
+        <v>177.55</v>
       </c>
       <c r="K82">
-        <v>229.12</v>
+        <v>222.66</v>
       </c>
       <c r="L82">
         <v>0</v>
       </c>
       <c r="M82">
-        <v>577.54</v>
+        <v>545.48</v>
       </c>
     </row>
     <row r="83">
@@ -3897,22 +3897,22 @@
         <v>8.51</v>
       </c>
       <c r="H83">
-        <v>6</v>
+        <v>6.08</v>
       </c>
       <c r="I83">
-        <v>70.52</v>
+        <v>71.44</v>
       </c>
       <c r="J83">
-        <v>193.59</v>
+        <v>177.55</v>
       </c>
       <c r="K83">
-        <v>229.12</v>
+        <v>222.66</v>
       </c>
       <c r="L83">
         <v>0</v>
       </c>
       <c r="M83">
-        <v>577.54</v>
+        <v>545.48</v>
       </c>
     </row>
     <row r="84">
@@ -3941,22 +3941,22 @@
         <v>8.52</v>
       </c>
       <c r="H84">
-        <v>6</v>
+        <v>6.08</v>
       </c>
       <c r="I84">
-        <v>70.37</v>
+        <v>71.29000000000001</v>
       </c>
       <c r="J84">
-        <v>193.59</v>
+        <v>177.55</v>
       </c>
       <c r="K84">
-        <v>229.12</v>
+        <v>222.66</v>
       </c>
       <c r="L84">
         <v>0</v>
       </c>
       <c r="M84">
-        <v>577.54</v>
+        <v>545.48</v>
       </c>
     </row>
     <row r="85">
@@ -3985,22 +3985,22 @@
         <v>23.63</v>
       </c>
       <c r="H85">
-        <v>13.01</v>
+        <v>13.17</v>
       </c>
       <c r="I85">
-        <v>55.07</v>
+        <v>55.76</v>
       </c>
       <c r="J85">
-        <v>199.43</v>
+        <v>185.61</v>
       </c>
       <c r="K85">
-        <v>257.28</v>
+        <v>249.19</v>
       </c>
       <c r="L85">
         <v>0</v>
       </c>
       <c r="M85">
-        <v>774.53</v>
+        <v>747.66</v>
       </c>
     </row>
     <row r="86">
@@ -4026,22 +4026,22 @@
         <v>8.52</v>
       </c>
       <c r="H86">
-        <v>6</v>
+        <v>6.08</v>
       </c>
       <c r="I86">
-        <v>70.37</v>
+        <v>71.29000000000001</v>
       </c>
       <c r="J86">
-        <v>193.59</v>
+        <v>177.55</v>
       </c>
       <c r="K86">
-        <v>229.12</v>
+        <v>222.66</v>
       </c>
       <c r="L86">
         <v>0</v>
       </c>
       <c r="M86">
-        <v>577.54</v>
+        <v>545.48</v>
       </c>
     </row>
     <row r="87">
@@ -4067,22 +4067,22 @@
         <v>23.63</v>
       </c>
       <c r="H87">
-        <v>13.01</v>
+        <v>13.17</v>
       </c>
       <c r="I87">
-        <v>55.07</v>
+        <v>55.76</v>
       </c>
       <c r="J87">
-        <v>199.43</v>
+        <v>185.61</v>
       </c>
       <c r="K87">
-        <v>257.28</v>
+        <v>249.19</v>
       </c>
       <c r="L87">
         <v>0</v>
       </c>
       <c r="M87">
-        <v>774.53</v>
+        <v>747.66</v>
       </c>
     </row>
     <row r="88">
@@ -4108,22 +4108,22 @@
         <v>23.79</v>
       </c>
       <c r="H88">
-        <v>13.01</v>
+        <v>13.17</v>
       </c>
       <c r="I88">
-        <v>54.7</v>
+        <v>55.38</v>
       </c>
       <c r="J88">
-        <v>199.43</v>
+        <v>185.61</v>
       </c>
       <c r="K88">
-        <v>257.28</v>
+        <v>249.19</v>
       </c>
       <c r="L88">
         <v>0</v>
       </c>
       <c r="M88">
-        <v>774.53</v>
+        <v>747.66</v>
       </c>
     </row>
     <row r="89">
@@ -4146,22 +4146,22 @@
         <v>23.79</v>
       </c>
       <c r="H89">
-        <v>13.01</v>
+        <v>13.17</v>
       </c>
       <c r="I89">
-        <v>54.69</v>
+        <v>55.38</v>
       </c>
       <c r="J89">
-        <v>199.43</v>
+        <v>185.61</v>
       </c>
       <c r="K89">
-        <v>257.28</v>
+        <v>249.19</v>
       </c>
       <c r="L89">
         <v>0</v>
       </c>
       <c r="M89">
-        <v>774.53</v>
+        <v>747.66</v>
       </c>
     </row>
     <row r="90">
@@ -4199,16 +4199,16 @@
         <v>28.06</v>
       </c>
       <c r="J90">
-        <v>240.17</v>
+        <v>229.68</v>
       </c>
       <c r="K90">
-        <v>251.62</v>
+        <v>245.63</v>
       </c>
       <c r="L90">
         <v>0</v>
       </c>
       <c r="M90">
-        <v>604.36</v>
+        <v>607.5700000000001</v>
       </c>
     </row>
     <row r="91">
@@ -4243,16 +4243,16 @@
         <v>28.06</v>
       </c>
       <c r="J91">
-        <v>240.17</v>
+        <v>229.68</v>
       </c>
       <c r="K91">
-        <v>251.62</v>
+        <v>245.63</v>
       </c>
       <c r="L91">
         <v>0</v>
       </c>
       <c r="M91">
-        <v>604.36</v>
+        <v>607.5700000000001</v>
       </c>
     </row>
     <row r="92">
@@ -4287,16 +4287,16 @@
         <v>28.03</v>
       </c>
       <c r="J92">
-        <v>240.12</v>
+        <v>229.66</v>
       </c>
       <c r="K92">
-        <v>251.54</v>
+        <v>245.55</v>
       </c>
       <c r="L92">
         <v>0</v>
       </c>
       <c r="M92">
-        <v>604.12</v>
+        <v>607.5700000000001</v>
       </c>
     </row>
     <row r="93">
@@ -4331,16 +4331,16 @@
         <v>22.48</v>
       </c>
       <c r="J93">
-        <v>213.99</v>
+        <v>205.98</v>
       </c>
       <c r="K93">
-        <v>247.62</v>
+        <v>242.36</v>
       </c>
       <c r="L93">
         <v>0</v>
       </c>
       <c r="M93">
-        <v>635.7</v>
+        <v>640.34</v>
       </c>
     </row>
     <row r="94">
@@ -4372,16 +4372,16 @@
         <v>28.03</v>
       </c>
       <c r="J94">
-        <v>240.12</v>
+        <v>229.66</v>
       </c>
       <c r="K94">
-        <v>251.54</v>
+        <v>245.55</v>
       </c>
       <c r="L94">
         <v>0</v>
       </c>
       <c r="M94">
-        <v>604.12</v>
+        <v>607.5700000000001</v>
       </c>
     </row>
     <row r="95">
@@ -4413,16 +4413,16 @@
         <v>22.48</v>
       </c>
       <c r="J95">
-        <v>213.91</v>
+        <v>205.9</v>
       </c>
       <c r="K95">
-        <v>247.59</v>
+        <v>242.33</v>
       </c>
       <c r="L95">
         <v>0</v>
       </c>
       <c r="M95">
-        <v>635.6900000000001</v>
+        <v>640.3200000000001</v>
       </c>
     </row>
     <row r="96">
@@ -4454,16 +4454,16 @@
         <v>22.39</v>
       </c>
       <c r="J96">
-        <v>213.87</v>
+        <v>205.78</v>
       </c>
       <c r="K96">
-        <v>247.55</v>
+        <v>242.31</v>
       </c>
       <c r="L96">
         <v>0</v>
       </c>
       <c r="M96">
-        <v>635.65</v>
+        <v>640.24</v>
       </c>
     </row>
     <row r="97">
@@ -4492,16 +4492,16 @@
         <v>22.39</v>
       </c>
       <c r="J97">
-        <v>213.86</v>
+        <v>205.75</v>
       </c>
       <c r="K97">
-        <v>247.52</v>
+        <v>242.28</v>
       </c>
       <c r="L97">
         <v>0</v>
       </c>
       <c r="M97">
-        <v>635.63</v>
+        <v>640.22</v>
       </c>
     </row>
   </sheetData>
